--- a/doc/Horas.xlsx
+++ b/doc/Horas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24206"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33265AC2-D9E9-4F39-90C5-71843B2B2C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="13908"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="13905" xr2:uid="{A22C7B05-6B0A-4116-A99A-60EDDEA67682}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,23 +401,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F274FABB-DF5C-4F9E-B98F-F8DC866DADF5}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>44326</v>
       </c>
@@ -438,7 +439,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>44336</v>
       </c>
@@ -452,7 +453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>44337</v>
       </c>
@@ -466,7 +467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>44338</v>
       </c>
@@ -480,14 +481,64 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>44339</v>
       </c>
       <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>44340</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B10">
         <v>12</v>
       </c>
-      <c r="D6">
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
         <v>12</v>
       </c>
     </row>
